--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel_local_A/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel_local_A/resultados.xlsx
@@ -68,22 +68,22 @@
     <t>['(2/2)']</t>
   </si>
   <si>
-    <t>['(1/1)', '(4/4)']</t>
+    <t>['(1/1)', '(2/2)', '(4/4)']</t>
+  </si>
+  <si>
+    <t>['(2/2)', '(4/4)', '(8/8)']</t>
+  </si>
+  <si>
+    <t>['(16/8)']</t>
+  </si>
+  <si>
+    <t>['(4/4)']</t>
   </si>
   <si>
     <t>['(8/8)']</t>
   </si>
   <si>
-    <t>['(2/2)', '(4/4)', '(8/8)', '(16/16)', '(8/16)', '(16/8)']</t>
-  </si>
-  <si>
-    <t>['(4/4)', '(8/8)', '(32/4)', '(8/16)', '(16/8)']</t>
-  </si>
-  <si>
-    <t>['(32/4)', '(8/16)', '(16/8)']</t>
-  </si>
-  <si>
-    <t>['(8/8)', '(32/4)']</t>
+    <t>['(32/4)', '(16/8)']</t>
   </si>
   <si>
     <t>['(32/4)']</t>
@@ -506,43 +506,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5.184000000000001E-06</v>
+        <v>5.152E-06</v>
       </c>
       <c r="C2" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>5.12E-06</v>
+        <v>5.28E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>6.176000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.336E-06</v>
       </c>
       <c r="G2" s="1">
-        <v>1.8432E-05</v>
+        <v>1.9296E-05</v>
       </c>
       <c r="H2" s="1">
         <v>0.000115712</v>
       </c>
       <c r="I2" s="1">
-        <v>0.000884736</v>
+        <v>0.000887808</v>
       </c>
       <c r="J2" s="1">
-        <v>0.00701952</v>
+        <v>0.00704</v>
       </c>
       <c r="K2" s="1">
-        <v>0.067995392</v>
+        <v>0.05618976000000001</v>
       </c>
       <c r="L2" s="1">
-        <v>0.5065728</v>
+        <v>0.482751552</v>
       </c>
       <c r="M2" s="1">
-        <v>7.922198304</v>
+        <v>7.551862816000001</v>
       </c>
       <c r="N2" s="1">
-        <v>104.591741696</v>
+        <v>104.54721328</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -553,10 +553,10 @@
         <v>5.12E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>5.408000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="E3" s="1">
         <v>5.12E-06</v>
@@ -571,22 +571,22 @@
         <v>2.56E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000170208</v>
+        <v>0.000169344</v>
       </c>
       <c r="J3" s="1">
-        <v>0.001313792</v>
+        <v>0.001305856</v>
       </c>
       <c r="K3" s="1">
-        <v>0.010436736</v>
+        <v>0.010387456</v>
       </c>
       <c r="L3" s="1">
-        <v>0.10811568</v>
+        <v>0.107875328</v>
       </c>
       <c r="M3" s="1">
-        <v>1.71481808</v>
+        <v>1.711747712</v>
       </c>
       <c r="N3" s="1">
-        <v>23.314060288</v>
+        <v>23.28444592</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -603,31 +603,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>5.12E-06</v>
+        <v>4.992000000000001E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>6.016000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>1.0016E-05</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="I4" s="1">
-        <v>4.1984E-05</v>
+        <v>4.137600000000001E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.00027856</v>
+        <v>0.000277504</v>
       </c>
       <c r="K4" s="1">
-        <v>0.002171904</v>
+        <v>0.002161664</v>
       </c>
       <c r="L4" s="1">
-        <v>0.02229792</v>
+        <v>0.022287136</v>
       </c>
       <c r="M4" s="1">
-        <v>0.379007872</v>
+        <v>0.378293024</v>
       </c>
       <c r="N4" s="1">
-        <v>5.167889408000001</v>
+        <v>5.158186112</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -635,37 +635,37 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>5.088E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>5.12E-06</v>
+        <v>5.824E-06</v>
       </c>
       <c r="F5" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>5.312E-06</v>
+        <v>4.96E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>7.072E-06</v>
+        <v>7.808E-06</v>
       </c>
       <c r="I5" s="1">
-        <v>2.3552E-05</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000129024</v>
+        <v>0.000128416</v>
       </c>
       <c r="K5" s="1">
-        <v>0.000978144</v>
+        <v>0.000971072</v>
       </c>
       <c r="L5" s="1">
-        <v>0.007866336</v>
+        <v>0.007827008</v>
       </c>
       <c r="M5" s="1">
-        <v>0.101105344</v>
+        <v>0.100503552</v>
       </c>
       <c r="N5" s="1">
-        <v>1.190127616</v>
+        <v>1.189698048</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -676,10 +676,10 @@
         <v>5.12E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>5.152E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="G6" s="1">
-        <v>5.856E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H6" s="1">
         <v>7.168000000000001E-06</v>
@@ -688,19 +688,19 @@
         <v>2.3552E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000126144</v>
+        <v>0.000125952</v>
       </c>
       <c r="K6" s="1">
-        <v>0.0009205760000000001</v>
+        <v>0.000923808</v>
       </c>
       <c r="L6" s="1">
-        <v>0.007308288</v>
+        <v>0.007310112000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>0.05947257600000001</v>
+        <v>0.059634176</v>
       </c>
       <c r="N6" s="1">
-        <v>0.495282176</v>
+        <v>0.4924761600000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -708,25 +708,25 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>2.4576E-05</v>
+        <v>2.448E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>0.000140288</v>
+        <v>0.0001384</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0009673920000000001</v>
+        <v>0.0009652800000000001</v>
       </c>
       <c r="K7" s="1">
-        <v>0.007433088000000001</v>
+        <v>0.007353344</v>
       </c>
       <c r="L7" s="1">
-        <v>0.061905696</v>
+        <v>0.061732224</v>
       </c>
       <c r="M7" s="1">
-        <v>0.485084128</v>
+        <v>0.4850247680000001</v>
       </c>
       <c r="N7" s="1">
-        <v>3.784242208</v>
+        <v>3.78515024</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -737,22 +737,22 @@
         <v>8.192000000000001E-06</v>
       </c>
       <c r="I8" s="1">
-        <v>2.1824E-05</v>
+        <v>2.1536E-05</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000186368</v>
+        <v>0.000190112</v>
       </c>
       <c r="K8" s="1">
-        <v>0.001534976</v>
+        <v>0.001543008</v>
       </c>
       <c r="L8" s="1">
-        <v>0.015186848</v>
+        <v>0.015122464</v>
       </c>
       <c r="M8" s="1">
-        <v>0.284965952</v>
+        <v>0.283204192</v>
       </c>
       <c r="N8" s="1">
-        <v>2.46401024</v>
+        <v>2.465911392</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -760,28 +760,28 @@
         <v>7</v>
       </c>
       <c r="G9" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.072E-06</v>
       </c>
       <c r="H9" s="1">
-        <v>1.2E-05</v>
+        <v>1.1264E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>5.2224E-05</v>
+        <v>5.12E-05</v>
       </c>
       <c r="J9" s="1">
-        <v>0.00033696</v>
+        <v>0.00033136</v>
       </c>
       <c r="K9" s="1">
-        <v>0.002419424</v>
+        <v>0.002417664</v>
       </c>
       <c r="L9" s="1">
-        <v>0.01798144</v>
+        <v>0.01793536</v>
       </c>
       <c r="M9" s="1">
-        <v>0.14635424</v>
+        <v>0.146065408</v>
       </c>
       <c r="N9" s="1">
-        <v>1.234184192</v>
+        <v>1.23421312</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -789,28 +789,28 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>5.504E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H10" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="I10" s="1">
-        <v>2.1504E-05</v>
+        <v>2.2112E-05</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000128</v>
+        <v>0.000127008</v>
       </c>
       <c r="K10" s="1">
-        <v>0.001119232</v>
+        <v>0.001113792</v>
       </c>
       <c r="L10" s="1">
-        <v>0.010487904</v>
+        <v>0.010387456</v>
       </c>
       <c r="M10" s="1">
-        <v>0.149439232</v>
+        <v>0.150900352</v>
       </c>
       <c r="N10" s="1">
-        <v>1.247092384</v>
+        <v>1.257116672</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -818,31 +818,31 @@
         <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>6.912E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="G11" s="1">
-        <v>5.472E-06</v>
+        <v>5.984000000000001E-06</v>
       </c>
       <c r="H11" s="1">
-        <v>8.928E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="I11" s="1">
-        <v>2.9472E-05</v>
+        <v>2.8736E-05</v>
       </c>
       <c r="J11" s="1">
         <v>0.000167936</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001250048</v>
+        <v>0.001241888</v>
       </c>
       <c r="L11" s="1">
-        <v>0.009115680000000001</v>
+        <v>0.00904752</v>
       </c>
       <c r="M11" s="1">
-        <v>0.075418624</v>
+        <v>0.07601152</v>
       </c>
       <c r="N11" s="1">
-        <v>0.66712576</v>
+        <v>0.66812464</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -853,28 +853,28 @@
         <v>5.12E-06</v>
       </c>
       <c r="G12" s="1">
-        <v>5.12E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H12" s="1">
-        <v>7.072E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="I12" s="1">
-        <v>2.064E-05</v>
+        <v>2.0192E-05</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000116736</v>
+        <v>0.000116448</v>
       </c>
       <c r="K12" s="1">
-        <v>0.0008884800000000001</v>
+        <v>0.000887808</v>
       </c>
       <c r="L12" s="1">
-        <v>0.007163904</v>
+        <v>0.007151168</v>
       </c>
       <c r="M12" s="1">
-        <v>0.07864902400000001</v>
+        <v>0.078655424</v>
       </c>
       <c r="N12" s="1">
-        <v>0.728957952</v>
+        <v>0.7334756800000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -885,31 +885,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F13" s="1">
-        <v>5.12E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="G13" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="H13" s="1">
-        <v>7.328000000000001E-06</v>
+        <v>7.904000000000001E-06</v>
       </c>
       <c r="I13" s="1">
-        <v>2.3552E-05</v>
+        <v>2.32E-05</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000130016</v>
+        <v>0.000128832</v>
       </c>
       <c r="K13" s="1">
-        <v>0.0009751680000000001</v>
+        <v>0.0009728</v>
       </c>
       <c r="L13" s="1">
-        <v>0.007759872</v>
+        <v>0.007744544000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>0.06513152</v>
+        <v>0.06514774400000001</v>
       </c>
       <c r="N13" s="1">
-        <v>0.701629664</v>
+        <v>0.7148247040000001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -917,34 +917,34 @@
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>5.12E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="F14" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="G14" s="1">
-        <v>5.12E-06</v>
+        <v>5.792000000000001E-06</v>
       </c>
       <c r="H14" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="I14" s="1">
-        <v>2.1536E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000120896</v>
+        <v>0.000121504</v>
       </c>
       <c r="K14" s="1">
-        <v>0.000916192</v>
+        <v>0.000914304</v>
       </c>
       <c r="L14" s="1">
-        <v>0.007275520000000001</v>
+        <v>0.007261792</v>
       </c>
       <c r="M14" s="1">
-        <v>0.063696768</v>
+        <v>0.064118464</v>
       </c>
       <c r="N14" s="1">
-        <v>0.69283328</v>
+        <v>0.6949856640000001</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>5.088E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -1024,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>5.12E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -1038,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>5.12E-06</v>
+        <v>4.992000000000001E-06</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -1052,7 +1052,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="1">
-        <v>5.12E-06</v>
+        <v>4.96E-06</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -1066,7 +1066,7 @@
         <v>128</v>
       </c>
       <c r="C8" s="1">
-        <v>7.072E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -1080,7 +1080,7 @@
         <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>2.064E-05</v>
+        <v>2.0192E-05</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
@@ -1094,7 +1094,7 @@
         <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.000116736</v>
+        <v>0.000116448</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -1108,7 +1108,7 @@
         <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.0008884800000000001</v>
+        <v>0.000887808</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -1122,7 +1122,7 @@
         <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.007163904</v>
+        <v>0.007151168</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1136,7 +1136,7 @@
         <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.05947257600000001</v>
+        <v>0.059634176</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
@@ -1150,7 +1150,7 @@
         <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.495282176</v>
+        <v>0.4924761600000001</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>

--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel_local_A/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel_local_A/resultados.xlsx
@@ -68,22 +68,22 @@
     <t>['(2/2)']</t>
   </si>
   <si>
-    <t>['(1/1)', '(2/2)', '(4/4)']</t>
-  </si>
-  <si>
-    <t>['(2/2)', '(4/4)', '(8/8)']</t>
-  </si>
-  <si>
-    <t>['(16/8)']</t>
+    <t>['(2/2)', '(4/4)']</t>
+  </si>
+  <si>
+    <t>['(8/8)']</t>
   </si>
   <si>
     <t>['(4/4)']</t>
   </si>
   <si>
-    <t>['(8/8)']</t>
-  </si>
-  <si>
-    <t>['(32/4)', '(16/8)']</t>
+    <t>['(4/4)', '(8/8)', '(16/16)', '(32/4)', '(8/16)', '(16/8)']</t>
+  </si>
+  <si>
+    <t>['(8/8)', '(64/2)', '(32/4)', '(8/16)', '(16/8)']</t>
+  </si>
+  <si>
+    <t>['(64/2)', '(32/4)']</t>
   </si>
   <si>
     <t>['(32/4)']</t>
@@ -506,43 +506,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5.152E-06</v>
+        <v>5.376000000000001E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>5.12E-06</v>
+        <v>5.824E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>5.28E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>5.12E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>6.336E-06</v>
+        <v>7.936E-06</v>
       </c>
       <c r="G2" s="1">
-        <v>1.9296E-05</v>
+        <v>1.9232E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>0.000115712</v>
+        <v>0.000114688</v>
       </c>
       <c r="I2" s="1">
-        <v>0.000887808</v>
+        <v>0.0008857600000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.00704</v>
+        <v>0.007021568000000001</v>
       </c>
       <c r="K2" s="1">
-        <v>0.05618976000000001</v>
+        <v>0.063812672</v>
       </c>
       <c r="L2" s="1">
-        <v>0.482751552</v>
+        <v>0.485241216</v>
       </c>
       <c r="M2" s="1">
-        <v>7.551862816000001</v>
+        <v>7.540160192</v>
       </c>
       <c r="N2" s="1">
-        <v>104.54721328</v>
+        <v>104.4972032</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -556,7 +556,7 @@
         <v>5.12E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>5.12E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="E3" s="1">
         <v>5.12E-06</v>
@@ -568,25 +568,25 @@
         <v>7.168000000000001E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>2.56E-05</v>
+        <v>2.624E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000169344</v>
+        <v>0.000169792</v>
       </c>
       <c r="J3" s="1">
-        <v>0.001305856</v>
+        <v>0.001313376</v>
       </c>
       <c r="K3" s="1">
-        <v>0.010387456</v>
+        <v>0.010436608</v>
       </c>
       <c r="L3" s="1">
-        <v>0.107875328</v>
+        <v>0.10822656</v>
       </c>
       <c r="M3" s="1">
-        <v>1.711747712</v>
+        <v>1.715288064</v>
       </c>
       <c r="N3" s="1">
-        <v>23.28444592</v>
+        <v>23.326289024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -597,37 +597,37 @@
         <v>5.12E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>5.12E-06</v>
+        <v>5.152E-06</v>
       </c>
       <c r="E4" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>4.992000000000001E-06</v>
+        <v>4.096E-06</v>
       </c>
       <c r="G4" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>9.216000000000001E-06</v>
+        <v>1.024E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>4.137600000000001E-05</v>
+        <v>4.096E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000277504</v>
+        <v>0.000279552</v>
       </c>
       <c r="K4" s="1">
-        <v>0.002161664</v>
+        <v>0.002171904</v>
       </c>
       <c r="L4" s="1">
-        <v>0.022287136</v>
+        <v>0.022301664</v>
       </c>
       <c r="M4" s="1">
-        <v>0.378293024</v>
+        <v>0.379154432</v>
       </c>
       <c r="N4" s="1">
-        <v>5.158186112</v>
+        <v>5.166443520000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -638,34 +638,34 @@
         <v>5.12E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>5.824E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="F5" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>4.96E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>7.808E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="I5" s="1">
-        <v>2.2528E-05</v>
+        <v>2.3456E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000128416</v>
+        <v>0.000129024</v>
       </c>
       <c r="K5" s="1">
-        <v>0.000971072</v>
+        <v>0.000978944</v>
       </c>
       <c r="L5" s="1">
-        <v>0.007827008</v>
+        <v>0.007863296000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>0.100503552</v>
+        <v>0.100922208</v>
       </c>
       <c r="N5" s="1">
-        <v>1.189698048</v>
+        <v>1.190213632</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -676,31 +676,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="G6" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.840000000000001E-06</v>
       </c>
       <c r="I6" s="1">
-        <v>2.3552E-05</v>
+        <v>2.4288E-05</v>
       </c>
       <c r="J6" s="1">
         <v>0.000125952</v>
       </c>
       <c r="K6" s="1">
-        <v>0.000923808</v>
+        <v>0.000921536</v>
       </c>
       <c r="L6" s="1">
-        <v>0.007310112000000001</v>
+        <v>0.007312384000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>0.059634176</v>
+        <v>0.059357824</v>
       </c>
       <c r="N6" s="1">
-        <v>0.4924761600000001</v>
+        <v>0.498010112</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -708,25 +708,25 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>2.448E-05</v>
+        <v>2.4576E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>0.0001384</v>
+        <v>0.000139136</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0009652800000000001</v>
+        <v>0.000968704</v>
       </c>
       <c r="K7" s="1">
-        <v>0.007353344</v>
+        <v>0.007430144000000001</v>
       </c>
       <c r="L7" s="1">
-        <v>0.061732224</v>
+        <v>0.061913856</v>
       </c>
       <c r="M7" s="1">
-        <v>0.4850247680000001</v>
+        <v>0.4850688</v>
       </c>
       <c r="N7" s="1">
-        <v>3.78515024</v>
+        <v>3.778089312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -734,25 +734,25 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="I8" s="1">
-        <v>2.1536E-05</v>
+        <v>2.2208E-05</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000190112</v>
+        <v>0.000187392</v>
       </c>
       <c r="K8" s="1">
-        <v>0.001543008</v>
+        <v>0.001550528</v>
       </c>
       <c r="L8" s="1">
-        <v>0.015122464</v>
+        <v>0.01498864</v>
       </c>
       <c r="M8" s="1">
-        <v>0.283204192</v>
+        <v>0.28435424</v>
       </c>
       <c r="N8" s="1">
-        <v>2.465911392</v>
+        <v>2.471980032</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -760,28 +760,28 @@
         <v>7</v>
       </c>
       <c r="G9" s="1">
-        <v>7.072E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="H9" s="1">
         <v>1.1264E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>5.12E-05</v>
+        <v>5.2224E-05</v>
       </c>
       <c r="J9" s="1">
-        <v>0.00033136</v>
+        <v>0.000333824</v>
       </c>
       <c r="K9" s="1">
-        <v>0.002417664</v>
+        <v>0.002420416</v>
       </c>
       <c r="L9" s="1">
-        <v>0.01793536</v>
+        <v>0.017977344</v>
       </c>
       <c r="M9" s="1">
-        <v>0.146065408</v>
+        <v>0.146313216</v>
       </c>
       <c r="N9" s="1">
-        <v>1.23421312</v>
+        <v>1.2342528</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -789,28 +789,28 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.08E-06</v>
       </c>
       <c r="H10" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="I10" s="1">
-        <v>2.2112E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000127008</v>
+        <v>0.000125952</v>
       </c>
       <c r="K10" s="1">
-        <v>0.001113792</v>
+        <v>0.00111904</v>
       </c>
       <c r="L10" s="1">
-        <v>0.010387456</v>
+        <v>0.010442496</v>
       </c>
       <c r="M10" s="1">
-        <v>0.150900352</v>
+        <v>0.151877632</v>
       </c>
       <c r="N10" s="1">
-        <v>1.257116672</v>
+        <v>1.251545088</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -818,31 +818,31 @@
         <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="G11" s="1">
-        <v>5.984000000000001E-06</v>
+        <v>5.28E-06</v>
       </c>
       <c r="H11" s="1">
         <v>8.192000000000001E-06</v>
       </c>
       <c r="I11" s="1">
-        <v>2.8736E-05</v>
+        <v>2.9472E-05</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000167936</v>
+        <v>0.000169824</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001241888</v>
+        <v>0.001245824</v>
       </c>
       <c r="L11" s="1">
-        <v>0.00904752</v>
+        <v>0.009118848000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>0.07601152</v>
+        <v>0.074715136</v>
       </c>
       <c r="N11" s="1">
-        <v>0.66812464</v>
+        <v>0.675446784</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -850,31 +850,31 @@
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>5.12E-06</v>
+        <v>5.856E-06</v>
       </c>
       <c r="G12" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H12" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="I12" s="1">
-        <v>2.0192E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000116448</v>
+        <v>0.000115712</v>
       </c>
       <c r="K12" s="1">
-        <v>0.000887808</v>
+        <v>0.0008886720000000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0.007151168</v>
+        <v>0.007131136000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>0.078655424</v>
+        <v>0.078587904</v>
       </c>
       <c r="N12" s="1">
-        <v>0.7334756800000001</v>
+        <v>0.7303195520000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -885,31 +885,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F13" s="1">
-        <v>5.088E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="G13" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="H13" s="1">
-        <v>7.904000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="I13" s="1">
-        <v>2.32E-05</v>
+        <v>2.4576E-05</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000128832</v>
+        <v>0.000129024</v>
       </c>
       <c r="K13" s="1">
-        <v>0.0009728</v>
+        <v>0.000975872</v>
       </c>
       <c r="L13" s="1">
-        <v>0.007744544000000001</v>
+        <v>0.007761664000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>0.06514774400000001</v>
+        <v>0.065478624</v>
       </c>
       <c r="N13" s="1">
-        <v>0.7148247040000001</v>
+        <v>0.70245648</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -917,34 +917,34 @@
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>5.088E-06</v>
+        <v>5.824E-06</v>
       </c>
       <c r="F14" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="G14" s="1">
-        <v>5.792000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H14" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="I14" s="1">
-        <v>2.1504E-05</v>
+        <v>2.224E-05</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000121504</v>
+        <v>0.000120832</v>
       </c>
       <c r="K14" s="1">
-        <v>0.000914304</v>
+        <v>0.00091648</v>
       </c>
       <c r="L14" s="1">
-        <v>0.007261792</v>
+        <v>0.007278528</v>
       </c>
       <c r="M14" s="1">
-        <v>0.064118464</v>
+        <v>0.06334854400000001</v>
       </c>
       <c r="N14" s="1">
-        <v>0.6949856640000001</v>
+        <v>0.697455872</v>
       </c>
     </row>
   </sheetData>
@@ -1010,10 +1010,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>5.12E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1027,7 +1027,7 @@
         <v>5.088E-06</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1038,10 +1038,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>4.992000000000001E-06</v>
+        <v>4.096E-06</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1052,10 +1052,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="1">
-        <v>4.96E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1066,10 +1066,10 @@
         <v>128</v>
       </c>
       <c r="C8" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1080,10 +1080,10 @@
         <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0192E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1094,7 +1094,7 @@
         <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.000116448</v>
+        <v>0.000115712</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -1108,7 +1108,7 @@
         <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.000887808</v>
+        <v>0.0008886720000000001</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -1122,7 +1122,7 @@
         <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.007151168</v>
+        <v>0.007131136000000001</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1136,7 +1136,7 @@
         <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.059634176</v>
+        <v>0.059357824</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
@@ -1150,7 +1150,7 @@
         <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.4924761600000001</v>
+        <v>0.498010112</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
